--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_10-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_10-20.xlsx
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>NO-MIGRAIN 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
@@ -809,7 +803,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -829,77 +823,51 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" customHeight="1">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c t="s" r="B11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="K11" s="10">
+        <v>229</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="11">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c t="s" r="F12" s="12">
         <v>23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c t="s" r="H11" s="8">
-        <v>12</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9">
-        <v>35</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c t="s" r="N11" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="26.25" customHeight="1">
-      <c r="K12" s="10">
-        <v>260</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="11">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c t="s" r="I12" s="14">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c t="s" r="F13" s="12">
-        <v>25</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c t="s" r="I13" s="14">
-        <v>26</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="32">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -928,13 +896,10 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:N12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
